--- a/HRMS/TrnCompassion.xlsx
+++ b/HRMS/TrnCompassion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>Table Name -  TrnCompassion</t>
   </si>
@@ -224,13 +224,127 @@
   </si>
   <si>
     <t>nvarchar(160)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take DeadEmpId as Int.</t>
+  </si>
+  <si>
+    <t>Take FaimilyMemberCount as Int.</t>
+  </si>
+  <si>
+    <t>Take AuthorityActionId as Int.</t>
+  </si>
+  <si>
+    <t>Take AuthorityId as Int.</t>
+  </si>
+  <si>
+    <t>Take AuthorityobjectionId as Int.</t>
+  </si>
+  <si>
+    <t>Take DescisiontypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take IsPassedExamedPrimaryTeacher as Int.</t>
+  </si>
+  <si>
+    <t>Take QualifiedDegreeId as Int.</t>
+  </si>
+  <si>
+    <t>Take whichPostCategoryAppliedId as Int.</t>
+  </si>
+  <si>
+    <t>Take DeathOfReason as String.</t>
+  </si>
+  <si>
+    <t>Take AffidavitYesOrNo as String.</t>
+  </si>
+  <si>
+    <t>Take ApplicantMobileNo as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get AppliedDesignationId  (MstDesignation) in Numaric * </t>
+  </si>
+  <si>
+    <t>Take AppointmentLetterNo as String.</t>
+  </si>
+  <si>
+    <t>Take AppointmentOrderno as String.</t>
+  </si>
+  <si>
+    <t>Take AuthorityRemark as String.</t>
+  </si>
+  <si>
+    <t>Take IsExamPassYear as String.</t>
+  </si>
+  <si>
+    <t>For  IsSavedOrNot Check.</t>
+  </si>
+  <si>
+    <t>Take NewAppointedOISCode as String.</t>
+  </si>
+  <si>
+    <t>Take ApplicationStatusId as String.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Take PaymentAmt  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take PaymentOrderNo as String.</t>
+  </si>
+  <si>
+    <t>Take ReasonOfRejectApplicantion as String.</t>
+  </si>
+  <si>
+    <t>Take PaymentChequeNo as String.</t>
+  </si>
+  <si>
+    <t>Take MartialStatusId as Int,</t>
+  </si>
+  <si>
+    <t>Take ApplicantQualifitypeId as Int,</t>
+  </si>
+  <si>
+    <t>Take NewAppointOIStypeId as Int,</t>
+  </si>
+  <si>
+    <t>Take ImagePath as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get NewAppointDistrictId  (MstDistrict) in Numaric </t>
+  </si>
+  <si>
+    <t>Take ApplicationNumber as String.</t>
+  </si>
+  <si>
+    <t>Take PayeeBankAccNo as String.</t>
+  </si>
+  <si>
+    <t>Take PayeeName as String.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +359,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -281,14 +407,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,6 +418,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +738,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,770 +747,858 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/TrnCompassion.xlsx
+++ b/HRMS/TrnCompassion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Table Name -  TrnCompassion</t>
   </si>
@@ -338,13 +338,16 @@
   </si>
   <si>
     <t>Take PayeeName as String.</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +367,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,12 +429,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -431,6 +436,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,32 +765,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -814,7 +828,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -831,7 +845,7 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -848,7 +862,7 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -866,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -884,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -902,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -920,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -928,7 +942,7 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -938,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -956,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -974,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -992,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1010,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1028,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1046,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1064,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1082,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1100,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1118,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1136,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1154,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1172,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1190,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1208,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1226,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1244,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1262,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1280,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1298,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1316,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1334,7 +1348,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1352,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1370,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1388,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1406,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1424,7 +1438,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1442,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1460,7 +1474,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1478,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1486,7 +1500,7 @@
       <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1496,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1514,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1532,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1550,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1568,7 +1582,7 @@
         <v>26</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1586,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1600,11 +1614,23 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HRMS/TrnCompassion.xlsx
+++ b/HRMS/TrnCompassion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <t>Table Name -  TrnCompassion</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में दया प्राधिकरण से संबंधित विवरण है</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -794,22 +794,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,19 +817,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,16 +837,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,17 +871,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,17 +889,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,17 +907,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,17 +925,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,17 +943,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,17 +961,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,17 +979,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,17 +997,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,17 +1015,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,17 +1033,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,17 +1051,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,17 +1069,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,17 +1087,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,17 +1105,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,17 +1123,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,17 +1141,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,17 +1159,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,17 +1177,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,17 +1195,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,17 +1213,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,17 +1231,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,17 +1249,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,17 +1267,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,17 +1285,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,17 +1303,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,17 +1321,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,17 +1339,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,17 +1357,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,17 +1375,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,17 +1393,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,17 +1411,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,17 +1429,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,17 +1447,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,17 +1465,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,17 +1483,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,17 +1501,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,17 +1519,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,17 +1537,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,17 +1555,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,17 +1573,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,17 +1591,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
